--- a/data/DataExcel.xlsx
+++ b/data/DataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\vodacom.payment_solution\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DC857532-222B-4FAF-82CD-7127E712EA9A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{312946C3-31CD-40D4-A7A8-EA47CE9839E1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="3000" windowWidth="14835" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="3000" windowWidth="14835" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" r:id="rId1" sheetId="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>transaction ID</t>
   </si>
@@ -109,37 +109,151 @@
     <t>transaction_id</t>
   </si>
   <si>
-    <t>105460000000000001309</t>
-  </si>
-  <si>
-    <t>105460000000000001312</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>5359690000016562</t>
-  </si>
-  <si>
-    <t>977</t>
-  </si>
-  <si>
-    <t>https://dev.vodacompaymentgateway.co.za/home/test</t>
-  </si>
-  <si>
-    <t>105460000000000001313</t>
-  </si>
-  <si>
-    <t>105460000000000001375</t>
-  </si>
-  <si>
-    <t>https://dev.vodacompaymentgateway.co.za/Admin/Administration/LogOn</t>
-  </si>
-  <si>
     <t>105460000000000001328</t>
   </si>
   <si>
+    <t>https://QA.vodacompaymentgateway.co.za/Admin/Administration/LogOn</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>105460000000000001332</t>
+  </si>
+  <si>
+    <t>105460000000000001327</t>
+  </si>
+  <si>
+    <t>105460000000000001465</t>
+  </si>
+  <si>
+    <t>5239090000095029</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>105460000000000001537</t>
+  </si>
+  <si>
+    <t>105460000000000001538</t>
+  </si>
+  <si>
+    <t>105460000000000001539</t>
+  </si>
+  <si>
+    <t>105460000000000001540</t>
+  </si>
+  <si>
+    <t>105460000000000001541</t>
+  </si>
+  <si>
+    <t>105460000000000001542</t>
+  </si>
+  <si>
+    <t>105460000000000001543</t>
+  </si>
+  <si>
+    <t>105460000000000001544</t>
+  </si>
+  <si>
+    <t>105460000000000001545</t>
+  </si>
+  <si>
+    <t>105460000000000001546</t>
+  </si>
+  <si>
+    <t>105460000000000001547</t>
+  </si>
+  <si>
+    <t>105460000000000001548</t>
+  </si>
+  <si>
+    <t>105460000000000001549</t>
+  </si>
+  <si>
+    <t>105460000000000001550</t>
+  </si>
+  <si>
+    <t>105460000000000001551</t>
+  </si>
+  <si>
+    <t>105460000000000001552</t>
+  </si>
+  <si>
+    <t>105460000000000001553</t>
+  </si>
+  <si>
+    <t>105460000000000001554</t>
+  </si>
+  <si>
+    <t>105460000000000001555</t>
+  </si>
+  <si>
+    <t>105460000000000001556</t>
+  </si>
+  <si>
+    <t>105460000000000001557</t>
+  </si>
+  <si>
+    <t>105460000000000001558</t>
+  </si>
+  <si>
+    <t>105460000000000001559</t>
+  </si>
+  <si>
+    <t>105460000000000001560</t>
+  </si>
+  <si>
+    <t>105460000000000001561</t>
+  </si>
+  <si>
+    <t>105460000000000001562</t>
+  </si>
+  <si>
+    <t>105460000000000001563</t>
+  </si>
+  <si>
+    <t>105460000000000001564</t>
+  </si>
+  <si>
+    <t>105460000000000001565</t>
+  </si>
+  <si>
+    <t>105460000000000001566</t>
+  </si>
+  <si>
+    <t>105460000000000001567</t>
+  </si>
+  <si>
+    <t>105460000000000001568</t>
+  </si>
+  <si>
+    <t>105460000000000001569</t>
+  </si>
+  <si>
+    <t>105460000000000001570</t>
+  </si>
+  <si>
+    <t>105460000000000001571</t>
+  </si>
+  <si>
+    <t>105460000000000001572</t>
+  </si>
+  <si>
+    <t>105460000000000001573</t>
+  </si>
+  <si>
+    <t>105460000000000001574</t>
   </si>
 </sst>
 </file>
@@ -147,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,18 +295,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -272,8 +389,188 @@
       <b val="true"/>
       <color indexed="9"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +610,306 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -425,7 +1022,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
@@ -454,7 +1051,37 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="16" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="23" fontId="17" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="18" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="35" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="65" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="48" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="87" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -772,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +1451,7 @@
     </row>
     <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -833,22 +1460,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>38</v>
+      <c r="I2" s="56" t="s">
+        <v>76</v>
       </c>
     </row>
     <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -865,6 +1492,9 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
       <c r="I4" s="10"/>
     </row>
     <row ht="15.75" r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -921,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -955,7 +1585,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1060,18 +1690,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>37</v>
+      <c r="A2" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
